--- a/data/manual_cot_exemplars.xlsx
+++ b/data/manual_cot_exemplars.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">exemplar_uid</t>
   </si>
@@ -40,12 +40,6 @@
     <t xml:space="preserve">manual_cot</t>
   </si>
   <si>
-    <t xml:space="preserve">manual_cot_alt1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_cot_alt2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ex0</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t xml:space="preserve">The categories „Defense Solutions",  "Civil",   and "Health", are represented in the second, third and fourth column of the table. For each of these columns, we need to look up the corresponding value in the Cost-reimbursement and fixed-price-incentive-fee row. For „Defense Solutions“ the value is $3,697. For "Civil" it is $1,997. For Health, it is $234. The third row tells us that the scale is in millions. Thus, the answer is $3,697 million,  $1,997 million, $234 million.</t>
   </si>
   <si>
-    <t xml:space="preserve">For Defense Solutions, the Cost-reimbursement and fixed-price-incentive-fee was $3,697. For  Civil the fee was $1,997. For Health, it was $234. The answer is $3,697 million,  $1,997 million, $234 million.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ex1</t>
   </si>
   <si>
@@ -80,12 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">There are 2 years represented in the table, 2019 and 2018. For both we need to look up the corresponding total ARR values which are in the „Total ARR“ row of the table. The second row tells us that the scale for all values except percentages is in millions. Looking at the total ARR row of the table, we see that its values are not percentages. Thus, they are noted in million. In 2019, the total ARR was $179.5 million. $179.5 million &gt;  $162 million. In 2018, the total ARR was $162.6 million. $162.6 million &gt; $162 million. Therefore, the total ARR was higher than $162 million in 2 years. The answer is 2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2019, the total ARR was $179.5 million. This value is higher than $162 million. In 2018, the total ARR was $162.6 million. This value is also higher than $162 million. Therefore, the total ARR was higher than $162 million in 2 years. The answer is 2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each year represented in the table, we need to find the corrsponding total ARR value and check if it is higher than $162 million. For 2019...</t>
   </si>
   <si>
     <t xml:space="preserve">ex2</t>
@@ -110,46 +95,41 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+  <fonts count="6">
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,19 +179,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,107 +217,97 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="124.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="124.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
